--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1964.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1964.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"may" + 0.001*"payment" + 0.001*"account" + 0.001*"import" + 0.001*"country" + 0.001*"foreign" + 0.001*"bank" + 0.001*"export" + 0.000*"per"</t>
-  </si>
-  <si>
-    <t>0.023*"import" + 0.020*"exchange" + 0.017*"may" + 0.015*"foreign" + 0.015*"payment" + 0.014*"account" + 0.014*"country" + 0.014*"currency" + 0.014*"bank" + 0.013*"export"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"import" + 0.001*"may" + 0.001*"foreign" + 0.001*"account" + 0.001*"payment" + 0.001*"export" + 0.001*"country" + 0.001*"currency" + 0.001*"proceeds"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"may" + 0.002*"export" + 0.002*"import" + 0.002*"account" + 0.001*"bank" + 0.001*"country" + 0.001*"foreign" + 0.001*"payment" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"may" + 0.001*"bank" + 0.001*"account" + 0.001*"import" + 0.001*"payment" + 0.001*"export" + 0.001*"foreign" + 0.001*"country" + 0.001*"currency"</t>
+    <t>0.057*"rate" + 0.030*"exchange" + 0.026*"market" + 0.023*"redistribution" + 0.018*"official" + 0.016*"u" + 0.015*"currency" + 0.015*"dollar" + 0.015*"value" + 0.013*"system"</t>
+  </si>
+  <si>
+    <t>0.062*"exchange" + 0.043*"bank" + 0.027*"control" + 0.025*"payment" + 0.023*"invisibles" + 0.022*"foreign" + 0.022*"must" + 0.015*"proceeds" + 0.014*"authorized" + 0.013*"transaction"</t>
+  </si>
+  <si>
+    <t>0.039*"foreign" + 0.039*"may" + 0.039*"fund" + 0.030*"monetary" + 0.029*"international" + 0.023*"investment" + 0.018*"capital" + 0.018*"abroad" + 0.016*"transfer" + 0.013*"amount"</t>
+  </si>
+  <si>
+    <t>0.095*"import" + 0.044*"export" + 0.040*"per" + 0.031*"license" + 0.029*"cent" + 0.028*"good" + 0.014*"list" + 0.014*"require" + 0.012*"country" + 0.011*"commodity"</t>
+  </si>
+  <si>
+    <t>0.065*"account" + 0.045*"country" + 0.044*"area" + 0.039*"currency" + 0.034*"may" + 0.033*"sterling" + 0.029*"payment" + 0.022*"nonresident" + 0.021*"resident" + 0.020*"make"</t>
   </si>
 </sst>
 </file>
